--- a/Presupuesto.xlsx
+++ b/Presupuesto.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7BC6C-FB47-4156-B629-7FC85F7EAB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>COMPONENTES</t>
   </si>
@@ -107,12 +121,18 @@
   </si>
   <si>
     <t>Total Valeriu</t>
+  </si>
+  <si>
+    <t>ultima compra</t>
+  </si>
+  <si>
+    <t>pcbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,12 +328,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -442,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,24 +671,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -644,15 +698,15 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="3">
-        <f xml:space="preserve"> D4+D5+D6+D7+D8+D9+D10+D11+D18</f>
-        <v>30.35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> D4+D5+D6+D7+D8+D9+D10+D11+D18+D23+D24</f>
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
@@ -662,7 +716,7 @@
       <c r="D4" s="1">
         <v>4.84</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="4">
@@ -670,7 +724,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
@@ -680,7 +734,7 @@
       <c r="D5" s="1">
         <v>0.22</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="4">
@@ -688,7 +742,7 @@
         <v>24.07</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
@@ -698,14 +752,14 @@
       <c r="D6" s="1">
         <v>0.36</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
@@ -716,7 +770,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
@@ -726,15 +780,15 @@
       <c r="D8" s="1">
         <v>0.3</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="6">
-        <f>SUM(D4:D22)</f>
-        <v>74.75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUM(D4:D24)</f>
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
@@ -745,7 +799,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
@@ -756,7 +810,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
@@ -767,7 +821,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
@@ -778,7 +832,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
@@ -789,7 +843,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
@@ -800,7 +854,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
@@ -811,7 +865,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
@@ -822,7 +876,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
@@ -833,7 +887,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
@@ -844,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
@@ -855,7 +909,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
@@ -866,7 +920,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -877,18 +931,41 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>7.87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>33.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>